--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\price_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C778226-C17B-4FF5-991F-D9CE700D7A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DE93E8-6C8B-4990-8133-8EBDA0FDDE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3450" windowWidth="28410" windowHeight="15435" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="3750" windowWidth="28800" windowHeight="15435" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>Platform</t>
-  </si>
-  <si>
-    <t>ProductID</t>
   </si>
   <si>
     <t>ProductName</t>
@@ -149,6 +146,13 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>PriceLimit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,6 +249,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -260,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -279,6 +294,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="6" xr:uid="{13E925C8-77DE-4CC4-8857-246032B157DB}"/>
@@ -590,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5B29A3-2F0A-406B-B912-A676C050A17F}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,300 +629,350 @@
     <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F17" xr:uid="{6D5B29A3-2F0A-406B-B912-A676C050A17F}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\price_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DE93E8-6C8B-4990-8133-8EBDA0FDDE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA1E59F-4B49-4AA8-B334-6C84A63BB390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="3750" windowWidth="28800" windowHeight="15435" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="3360" windowWidth="22320" windowHeight="15435" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>Platform</t>
   </si>
@@ -154,6 +154,93 @@
   <si>
     <t>PriceLimit</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6923185655787</t>
+  </si>
+  <si>
+    <t>6923185656098</t>
+  </si>
+  <si>
+    <t>6923185655718</t>
+  </si>
+  <si>
+    <t>6923185654445</t>
+  </si>
+  <si>
+    <t>6923185656593</t>
+  </si>
+  <si>
+    <t>6923185653585</t>
+  </si>
+  <si>
+    <t>6923185654247</t>
+  </si>
+  <si>
+    <t>6923185654865</t>
+  </si>
+  <si>
+    <t>6923185653592</t>
+  </si>
+  <si>
+    <t>6923185621058</t>
+  </si>
+  <si>
+    <t>昆仑4 制冰台净</t>
+  </si>
+  <si>
+    <t>鲲鹏净热（热魔方）</t>
+  </si>
+  <si>
+    <t>昆仑4 弱碱Pro 1400G</t>
+  </si>
+  <si>
+    <t>昆仑3 即热矿泉</t>
+  </si>
+  <si>
+    <t>云米昆仑3矿泉净水器2S Pro</t>
+  </si>
+  <si>
+    <t>云米AI净水器昆仑 Super 2S 1200G</t>
+  </si>
+  <si>
+    <t>鲜活泉系列 Smart 1000G(小竹泉）</t>
+  </si>
+  <si>
+    <t>小海豚2 1000G</t>
+  </si>
+  <si>
+    <t>云米·泉先AI净水器蓝调600G+</t>
+  </si>
+  <si>
+    <t>smart 前置过滤器 （VF4-A）</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100215523232.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100200100603.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10202290093822.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10206797283677.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100105676026.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100141797446.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10187950646301.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10105870187513.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100013447067.html</t>
   </si>
 </sst>
 </file>
@@ -297,7 +384,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -611,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5B29A3-2F0A-406B-B912-A676C050A17F}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -972,6 +1059,209 @@
         <v>499</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F28" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\price_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA1E59F-4B49-4AA8-B334-6C84A63BB390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D05AB2-FCBE-4B2F-9E0C-C777A1F7C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="3360" windowWidth="22320" windowHeight="15435" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="113">
   <si>
     <t>Platform</t>
   </si>
@@ -241,6 +241,142 @@
   </si>
   <si>
     <t>https://item.jd.com/100013447067.html</t>
+  </si>
+  <si>
+    <t>拼多多</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6923185653684</t>
+  </si>
+  <si>
+    <t>6923185651116</t>
+  </si>
+  <si>
+    <t>6923185653974</t>
+  </si>
+  <si>
+    <t>857325968546</t>
+  </si>
+  <si>
+    <t>852932116812</t>
+  </si>
+  <si>
+    <t>850883552953</t>
+  </si>
+  <si>
+    <t>850344043841</t>
+  </si>
+  <si>
+    <t>849648457333</t>
+  </si>
+  <si>
+    <t>849000374681</t>
+  </si>
+  <si>
+    <t>846360072018</t>
+  </si>
+  <si>
+    <t>842195971715</t>
+  </si>
+  <si>
+    <t>837957770723</t>
+  </si>
+  <si>
+    <t>819506595979</t>
+  </si>
+  <si>
+    <t>364990106384</t>
+  </si>
+  <si>
+    <t>225501370546</t>
+  </si>
+  <si>
+    <t>205458105137</t>
+  </si>
+  <si>
+    <t>1816570520374</t>
+  </si>
+  <si>
+    <t>1812983769340</t>
+  </si>
+  <si>
+    <t>1811278299045</t>
+  </si>
+  <si>
+    <t>1810740228115</t>
+  </si>
+  <si>
+    <t>1810108178225</t>
+  </si>
+  <si>
+    <t>1809523164736</t>
+  </si>
+  <si>
+    <t>1807240839093</t>
+  </si>
+  <si>
+    <t>1803617356458</t>
+  </si>
+  <si>
+    <t>1809123722986</t>
+  </si>
+  <si>
+    <t>1787046011387</t>
+  </si>
+  <si>
+    <t>1455593712429</t>
+  </si>
+  <si>
+    <t>1813468330532</t>
+  </si>
+  <si>
+    <t>1600502140541</t>
+  </si>
+  <si>
+    <t>1640308935573</t>
+  </si>
+  <si>
+    <t>前置过滤器</t>
+  </si>
+  <si>
+    <t>小海豚600G+,滤芯套装12</t>
+  </si>
+  <si>
+    <t>小蓝调600G,MAIN53</t>
+  </si>
+  <si>
+    <t>昆仑3台净</t>
+  </si>
+  <si>
+    <t>小昆仑2E,MAIN33</t>
+  </si>
+  <si>
+    <t>鲜活泉2Y-1200G,MAIN36</t>
+  </si>
+  <si>
+    <t>即热1000G,COPY18</t>
+  </si>
+  <si>
+    <t>小竹泉1000G,MAIN15</t>
+  </si>
+  <si>
+    <t>小白龙800G+</t>
+  </si>
+  <si>
+    <t>小海豚600G+,COPY79</t>
+  </si>
+  <si>
+    <t>即热1000G,MAIN84</t>
+  </si>
+  <si>
+    <t>小海豚600G+,+1年延保</t>
+  </si>
+  <si>
+    <t>小海豚600G+,MAIN46</t>
+  </si>
+  <si>
+    <t>小海豚2_1000G,MAIN37</t>
   </si>
 </sst>
 </file>
@@ -362,7 +498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -387,6 +523,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="6" xr:uid="{13E925C8-77DE-4CC4-8857-246032B157DB}"/>
@@ -698,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5B29A3-2F0A-406B-B912-A676C050A17F}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1260,7 +1400,326 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F28" s="7"/>
+      <c r="A28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41">
+        <v>899</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\price_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0047FC82-41BE-4A73-A93E-E818C0CDA95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABC0F89-90FB-4473-A086-D368A63D9912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40740" yWindow="765" windowWidth="22320" windowHeight="15435" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="131">
   <si>
     <t>Platform</t>
   </si>
@@ -55,6 +55,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>6923185649885</t>
+  </si>
+  <si>
+    <t>云米·泉先AI管线机Master2S</t>
+  </si>
+  <si>
+    <t>云米·泉先 AI冷热管线机 Super 2E</t>
+  </si>
+  <si>
     <t>6923185654254</t>
   </si>
   <si>
@@ -64,10 +73,76 @@
     <t>6923185653981</t>
   </si>
   <si>
+    <t>6923185652526</t>
+  </si>
+  <si>
+    <t>6923185650966</t>
+  </si>
+  <si>
+    <t>6923185655794</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100193748406.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100216835595.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10190163229722.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10190186867694.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10190216497508.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10143719582452.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10143724381196.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100118324669.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100094220985.html</t>
+  </si>
+  <si>
     <t>https://item.jd.com/100135346870.html</t>
   </si>
   <si>
+    <t>https://item.jd.com/100152351404.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10116378745406.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10114588738475.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100113886253.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10111293867587.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10109665694149.html</t>
+  </si>
+  <si>
+    <t>云米AI净饮机Super 2</t>
+  </si>
+  <si>
+    <t>云米AI冷热管线机Super2 Pro</t>
+  </si>
+  <si>
     <t>云米AI昆仑矿泉净水机 Super 2E 2500</t>
+  </si>
+  <si>
+    <t>云米·泉先前置过滤器 Super</t>
+  </si>
+  <si>
+    <t>云米AI净水器Super 2Y 1200G</t>
   </si>
   <si>
     <t>是</t>
@@ -81,6 +156,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>6923185655787</t>
+  </si>
+  <si>
+    <t>6923185656098</t>
+  </si>
+  <si>
+    <t>6923185655718</t>
+  </si>
+  <si>
+    <t>6923185654445</t>
+  </si>
+  <si>
+    <t>6923185656593</t>
+  </si>
+  <si>
+    <t>6923185653585</t>
+  </si>
+  <si>
     <t>6923185654247</t>
   </si>
   <si>
@@ -91,6 +184,63 @@
   </si>
   <si>
     <t>6923185621058</t>
+  </si>
+  <si>
+    <t>昆仑4 制冰台净</t>
+  </si>
+  <si>
+    <t>鲲鹏净热（热魔方）</t>
+  </si>
+  <si>
+    <t>昆仑4 弱碱Pro 1400G</t>
+  </si>
+  <si>
+    <t>昆仑3 即热矿泉</t>
+  </si>
+  <si>
+    <t>云米昆仑3矿泉净水器2S Pro</t>
+  </si>
+  <si>
+    <t>云米AI净水器昆仑 Super 2S 1200G</t>
+  </si>
+  <si>
+    <t>鲜活泉系列 Smart 1000G(小竹泉）</t>
+  </si>
+  <si>
+    <t>小海豚2 1000G</t>
+  </si>
+  <si>
+    <t>云米·泉先AI净水器蓝调600G+</t>
+  </si>
+  <si>
+    <t>smart 前置过滤器 （VF4-A）</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100215523232.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100200100603.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10202290093822.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10206797283677.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100105676026.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100141797446.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10187950646301.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10105870187513.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100013447067.html</t>
   </si>
   <si>
     <t>拼多多</t>
@@ -233,6 +383,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>AI净水器Super2Y1200G</t>
+  </si>
+  <si>
     <t>6923185615415</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -241,15 +394,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AI净水器Super2Y1200G</t>
-  </si>
-  <si>
-    <t>云米·泉先AI净水器蓝调600G+</t>
-  </si>
-  <si>
-    <t>https://item.jd.com/10105870187513.html</t>
-  </si>
-  <si>
     <t>5759705680450</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -258,11 +402,50 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://detail.tmall.com/item.htm?&amp;id=625597690034skuId=5626578542751</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5626578542751</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?&amp;id=831641379841&amp;skuId=5932143705073</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5932143705073</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?&amp;id=935542865349&amp;skuId=5999562492773</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5999562492773</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>https://detail.tmall.com/item.htm?id=671890389960&amp;skuId=6119280170872</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=902116631708&amp;skuId=5759705680450</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6004590737390</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5932213893350</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?&amp;id=1008507536404&amp;skuId=6004590737390</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?&amp;id=839274619649&amp;skuId=5932213893350</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +511,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -380,7 +562,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -393,10 +575,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -414,15 +608,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Comma" xfId="6" xr:uid="{13E925C8-77DE-4CC4-8857-246032B157DB}"/>
     <cellStyle name="Comma [0]" xfId="7" xr:uid="{7D466E4F-2BB9-4CC2-9447-36BD3C5253A7}"/>
     <cellStyle name="Currency" xfId="4" xr:uid="{2B14BC8D-C482-4F50-BFDD-81659B08C10D}"/>
@@ -432,6 +620,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2" xr:uid="{A3E10780-EC52-467C-AEBC-CB4F18197ACA}"/>
     <cellStyle name="常规 3" xfId="9" xr:uid="{C79F3886-D490-409C-874F-3828987070C8}"/>
+    <cellStyle name="常规 4" xfId="10" xr:uid="{AD18EB91-CF44-405B-932F-3E847E1BC5A6}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -732,18 +921,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5B29A3-2F0A-406B-B912-A676C050A17F}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
@@ -751,444 +940,1041 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>13</v>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G2">
         <v>1699</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1199</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G8">
         <v>1699</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G9">
         <v>1399</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G10">
-        <v>1599</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>14</v>
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G11">
         <v>1199</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G12">
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36">
         <v>919</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="G13">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>1399</v>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <v>2399</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" xr:uid="{1E95D020-7FF8-4F90-8DB6-5EBCDECE14C4}"/>
-    <hyperlink ref="D18" r:id="rId2" xr:uid="{377349FB-ABC4-4D8E-B697-AD2BCEAACB91}"/>
+    <hyperlink ref="D44" r:id="rId1" xr:uid="{448E2068-5AEC-45B8-A2C9-298F1EA90FF7}"/>
+    <hyperlink ref="D45" r:id="rId2" xr:uid="{D787695F-1143-49F7-A041-2D96019CA60B}"/>
+    <hyperlink ref="D46" r:id="rId3" xr:uid="{90BA0F84-FB85-4C02-B302-545E90336DE9}"/>
+    <hyperlink ref="D43" r:id="rId4" xr:uid="{FE8D98F3-8B7C-4433-AF54-D2C0792EAFC9}"/>
+    <hyperlink ref="D42" r:id="rId5" xr:uid="{A8E4EB95-45F2-491B-A6A0-D7F9E4B95DB2}"/>
+    <hyperlink ref="D47" r:id="rId6" xr:uid="{87BEF37E-6E75-40B3-93CA-C63F241236DF}"/>
+    <hyperlink ref="D48" r:id="rId7" xr:uid="{3BBD36C3-182D-4027-936E-F1161DCE46B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\price_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABC0F89-90FB-4473-A086-D368A63D9912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594A39AD-7B5B-4EC0-9F50-B642D15BF08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="145">
   <si>
     <t>Platform</t>
   </si>
@@ -446,6 +446,60 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?&amp;id=839274619649&amp;skuId=5932213893350</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/10137116625841.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?&amp;id=818443225222&amp;skuId=5688219802644</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5688219802644</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6923185650966</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管线机2E</t>
+  </si>
+  <si>
+    <t>6923185652526</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管线机2S</t>
+  </si>
+  <si>
+    <t>604410073495</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1633858930719</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>861508688697</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1584984425232</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?&amp;id=818563300013&amp;skuId=5519445640124</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5519445640124</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -608,7 +662,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="6" xr:uid="{13E925C8-77DE-4CC4-8857-246032B157DB}"/>
@@ -921,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5B29A3-2F0A-406B-B912-A676C050A17F}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1929,10 +1982,10 @@
       <c r="C47" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>129</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" t="s">
         <v>127</v>
       </c>
       <c r="F47" s="7" t="s">
@@ -1943,16 +1996,19 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="B48" t="s">
         <v>42</v>
       </c>
       <c r="C48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" t="s">
         <v>128</v>
       </c>
       <c r="F48" s="7" t="s">
@@ -1961,6 +2017,124 @@
       <c r="G48">
         <v>2399</v>
       </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F55" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1972,9 +2146,12 @@
     <hyperlink ref="D42" r:id="rId5" xr:uid="{A8E4EB95-45F2-491B-A6A0-D7F9E4B95DB2}"/>
     <hyperlink ref="D47" r:id="rId6" xr:uid="{87BEF37E-6E75-40B3-93CA-C63F241236DF}"/>
     <hyperlink ref="D48" r:id="rId7" xr:uid="{3BBD36C3-182D-4027-936E-F1161DCE46B9}"/>
+    <hyperlink ref="D49" r:id="rId8" xr:uid="{EBA44BAF-0CC2-4449-9794-5E0429B323BF}"/>
+    <hyperlink ref="D50" r:id="rId9" xr:uid="{3C8840E7-7B03-41DF-B96B-7F4AFCF73177}"/>
+    <hyperlink ref="D53" r:id="rId10" xr:uid="{E078CD41-56A4-4EC5-8CF0-FDFBE72F6E85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\price_scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\price_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594A39AD-7B5B-4EC0-9F50-B642D15BF08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A87B44-2A8C-4366-BC2A-041DB930022E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="930" windowWidth="26925" windowHeight="14475" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -18,23 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="147">
   <si>
     <t>Platform</t>
   </si>
@@ -402,10 +391,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?&amp;id=625597690034skuId=5626578542751</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>5626578542751</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -500,6 +485,18 @@
   </si>
   <si>
     <t>京东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?&amp;id=975430836279&amp;skuId=6127230887124</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6127230887124</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?&amp;id=625597690034&amp;skuId=5626578542751</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -662,6 +659,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="6" xr:uid="{13E925C8-77DE-4CC4-8857-246032B157DB}"/>
@@ -976,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5B29A3-2F0A-406B-B912-A676C050A17F}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1536,26 +1534,23 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>48</v>
+      <c r="A28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>85</v>
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G28">
-        <v>399</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1563,22 +1558,22 @@
         <v>68</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G29">
-        <v>559</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -1586,22 +1581,22 @@
         <v>68</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G30">
-        <v>679</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -1609,22 +1604,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G31">
-        <v>1199</v>
+        <v>679</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -1632,22 +1627,22 @@
         <v>68</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G32">
-        <v>1699</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1655,45 +1650,45 @@
         <v>68</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33">
+      <c r="F34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34">
         <v>1399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34">
-        <v>1599</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1701,22 +1696,22 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G35">
-        <v>1199</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -1724,22 +1719,22 @@
         <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G36">
-        <v>919</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -1747,22 +1742,22 @@
         <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G37">
-        <v>559</v>
+        <v>919</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -1770,22 +1765,22 @@
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G38">
-        <v>1599</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -1793,22 +1788,22 @@
         <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G39">
-        <v>559</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1819,13 +1814,13 @@
         <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
         <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>36</v>
@@ -1839,91 +1834,91 @@
         <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G41">
-        <v>899</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G42">
-        <v>1199</v>
+        <v>899</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G43">
-        <v>1399</v>
+        <v>899</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G44">
-        <v>679</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -1931,22 +1926,22 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G45">
-        <v>1699</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -1954,22 +1949,22 @@
         <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G46">
-        <v>2999</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -1977,22 +1972,22 @@
         <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" t="s">
-        <v>129</v>
+        <v>57</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G47">
-        <v>3199</v>
+        <v>679</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -2000,42 +1995,45 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G48">
-        <v>2399</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" t="s">
-        <v>131</v>
+        <v>51</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" t="s">
+        <v>123</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G49">
-        <v>1599</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -2043,68 +2041,68 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G50">
-        <v>899</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G51">
-        <v>899</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G52">
-        <v>1199</v>
+        <v>899</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -2112,16 +2110,16 @@
         <v>113</v>
       </c>
       <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="s">
         <v>134</v>
       </c>
-      <c r="C53" t="s">
-        <v>135</v>
-      </c>
       <c r="D53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" t="s">
         <v>142</v>
-      </c>
-      <c r="E53" t="s">
-        <v>143</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>36</v>
@@ -2131,27 +2129,53 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F54" s="7"/>
+      <c r="A54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54">
+        <v>679</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F55" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{6D5B29A3-2F0A-406B-B912-A676C050A17F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G54">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D44" r:id="rId1" xr:uid="{448E2068-5AEC-45B8-A2C9-298F1EA90FF7}"/>
-    <hyperlink ref="D45" r:id="rId2" xr:uid="{D787695F-1143-49F7-A041-2D96019CA60B}"/>
-    <hyperlink ref="D46" r:id="rId3" xr:uid="{90BA0F84-FB85-4C02-B302-545E90336DE9}"/>
-    <hyperlink ref="D43" r:id="rId4" xr:uid="{FE8D98F3-8B7C-4433-AF54-D2C0792EAFC9}"/>
-    <hyperlink ref="D42" r:id="rId5" xr:uid="{A8E4EB95-45F2-491B-A6A0-D7F9E4B95DB2}"/>
-    <hyperlink ref="D47" r:id="rId6" xr:uid="{87BEF37E-6E75-40B3-93CA-C63F241236DF}"/>
-    <hyperlink ref="D48" r:id="rId7" xr:uid="{3BBD36C3-182D-4027-936E-F1161DCE46B9}"/>
-    <hyperlink ref="D49" r:id="rId8" xr:uid="{EBA44BAF-0CC2-4449-9794-5E0429B323BF}"/>
-    <hyperlink ref="D50" r:id="rId9" xr:uid="{3C8840E7-7B03-41DF-B96B-7F4AFCF73177}"/>
-    <hyperlink ref="D53" r:id="rId10" xr:uid="{E078CD41-56A4-4EC5-8CF0-FDFBE72F6E85}"/>
+    <hyperlink ref="D48" r:id="rId1" xr:uid="{D787695F-1143-49F7-A041-2D96019CA60B}"/>
+    <hyperlink ref="D49" r:id="rId2" xr:uid="{90BA0F84-FB85-4C02-B302-545E90336DE9}"/>
+    <hyperlink ref="D46" r:id="rId3" xr:uid="{FE8D98F3-8B7C-4433-AF54-D2C0792EAFC9}"/>
+    <hyperlink ref="D45" r:id="rId4" xr:uid="{A8E4EB95-45F2-491B-A6A0-D7F9E4B95DB2}"/>
+    <hyperlink ref="D50" r:id="rId5" xr:uid="{87BEF37E-6E75-40B3-93CA-C63F241236DF}"/>
+    <hyperlink ref="D51" r:id="rId6" xr:uid="{3BBD36C3-182D-4027-936E-F1161DCE46B9}"/>
+    <hyperlink ref="D28" r:id="rId7" xr:uid="{EBA44BAF-0CC2-4449-9794-5E0429B323BF}"/>
+    <hyperlink ref="D52" r:id="rId8" xr:uid="{3C8840E7-7B03-41DF-B96B-7F4AFCF73177}"/>
+    <hyperlink ref="D53" r:id="rId9" xr:uid="{E078CD41-56A4-4EC5-8CF0-FDFBE72F6E85}"/>
+    <hyperlink ref="D54" r:id="rId10" xr:uid="{6276A1DE-21E1-4403-8960-7A0EFF687DBE}"/>
+    <hyperlink ref="D47" r:id="rId11" xr:uid="{DED2D5DF-9E83-49A1-A721-C99AA163CA96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\price_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C148E6-21CB-4164-BEE5-93F3536C03F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6180944D-D169-4E6E-B236-4F75C94CECD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="259">
   <si>
     <t>Platform</t>
   </si>
@@ -717,15 +717,9 @@
     <t>https://item.jd.com/10130854696036.html</t>
   </si>
   <si>
-    <t>多多百补商品</t>
-  </si>
-  <si>
     <t>PriceLimit</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>https://item.jd.com/10137116625841.html</t>
   </si>
   <si>
@@ -811,6 +805,10 @@
   </si>
   <si>
     <t>6004590737390</t>
+  </si>
+  <si>
+    <t>[T]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -956,7 +954,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1297,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5B29A3-2F0A-406B-B912-A676C050A17F}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1332,10 +1330,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1352,8 +1350,8 @@
         <v>23</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>230</v>
+      <c r="F2" s="3">
+        <v>0</v>
       </c>
       <c r="G2" s="3">
         <v>1699</v>
@@ -1373,8 +1371,8 @@
         <v>64</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>230</v>
+      <c r="F3" s="3">
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>399</v>
@@ -1391,11 +1389,11 @@
         <v>105</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>230</v>
+      <c r="F4" s="3">
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>1599</v>
@@ -1415,8 +1413,8 @@
         <v>226</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>230</v>
+      <c r="F5" s="3">
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>1299</v>
@@ -1430,14 +1428,14 @@
         <v>113</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>230</v>
+      <c r="F6" s="3">
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>299</v>
@@ -1457,8 +1455,8 @@
         <v>211</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>230</v>
+      <c r="F7" s="3">
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>839</v>
@@ -1478,8 +1476,8 @@
         <v>212</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>230</v>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>999</v>
@@ -1499,8 +1497,8 @@
         <v>213</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>230</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>899</v>
@@ -1520,8 +1518,8 @@
         <v>214</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>230</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>499</v>
@@ -1541,8 +1539,8 @@
         <v>215</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>230</v>
+      <c r="F11" s="3">
+        <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>1199</v>
@@ -1562,8 +1560,8 @@
         <v>216</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>230</v>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>1399</v>
@@ -1583,8 +1581,8 @@
         <v>217</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>230</v>
+      <c r="F13" s="3">
+        <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>899</v>
@@ -1604,8 +1602,8 @@
         <v>218</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>230</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>899</v>
@@ -1625,8 +1623,8 @@
         <v>219</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>230</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>2499</v>
@@ -1646,8 +1644,8 @@
         <v>220</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>230</v>
+      <c r="F16" s="3">
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>699</v>
@@ -1667,8 +1665,8 @@
         <v>221</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>230</v>
+      <c r="F17" s="3">
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>699</v>
@@ -1688,8 +1686,8 @@
         <v>222</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>230</v>
+      <c r="F18" s="3">
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>799</v>
@@ -1709,8 +1707,8 @@
         <v>224</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>230</v>
+      <c r="F19" s="3">
+        <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>499</v>
@@ -1730,8 +1728,8 @@
         <v>223</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>230</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>599</v>
@@ -1751,8 +1749,8 @@
         <v>225</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>230</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>799</v>
@@ -1772,8 +1770,8 @@
         <v>63</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>230</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>679</v>
@@ -1793,8 +1791,8 @@
         <v>62</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>230</v>
+      <c r="F23" s="3">
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>899</v>
@@ -1814,8 +1812,8 @@
         <v>227</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>230</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>2499</v>
@@ -1835,8 +1833,8 @@
         <v>60</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>230</v>
+      <c r="F25" s="3">
+        <v>0</v>
       </c>
       <c r="G25" s="3">
         <v>1899</v>
@@ -1856,8 +1854,8 @@
         <v>57</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>230</v>
+      <c r="F26" s="3">
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>3199</v>
@@ -1877,8 +1875,8 @@
         <v>61</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>230</v>
+      <c r="F27" s="3">
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>1199</v>
@@ -1898,8 +1896,8 @@
         <v>20</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>230</v>
+      <c r="F28" s="3">
+        <v>0</v>
       </c>
       <c r="G28" s="3">
         <v>499</v>
@@ -1919,8 +1917,8 @@
         <v>21</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="3" t="s">
-        <v>230</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>499</v>
@@ -1940,8 +1938,8 @@
         <v>22</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="3" t="s">
-        <v>230</v>
+      <c r="F30" s="3">
+        <v>0</v>
       </c>
       <c r="G30" s="3">
         <v>899</v>
@@ -1961,8 +1959,8 @@
         <v>28</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="3" t="s">
-        <v>230</v>
+      <c r="F31" s="3">
+        <v>0</v>
       </c>
       <c r="G31" s="3">
         <v>899</v>
@@ -1982,8 +1980,8 @@
         <v>18</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="3" t="s">
-        <v>230</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>1199</v>
@@ -2003,8 +2001,8 @@
         <v>56</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="3" t="s">
-        <v>230</v>
+      <c r="F33" s="3">
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>3199</v>
@@ -2024,8 +2022,8 @@
         <v>14</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="3" t="s">
-        <v>230</v>
+      <c r="F34" s="3">
+        <v>0</v>
       </c>
       <c r="G34" s="3">
         <v>1199</v>
@@ -2045,8 +2043,8 @@
         <v>29</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>230</v>
+      <c r="F35" s="3">
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>1399</v>
@@ -2066,8 +2064,8 @@
         <v>19</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>230</v>
+      <c r="F36" s="3">
+        <v>0</v>
       </c>
       <c r="G36" s="3">
         <v>1199</v>
@@ -2087,8 +2085,8 @@
         <v>26</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>230</v>
+      <c r="F37" s="3">
+        <v>0</v>
       </c>
       <c r="G37" s="3">
         <v>1699</v>
@@ -2108,8 +2106,8 @@
         <v>16</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>230</v>
+      <c r="F38" s="3">
+        <v>0</v>
       </c>
       <c r="G38" s="3">
         <v>1699</v>
@@ -2129,8 +2127,8 @@
         <v>15</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>230</v>
+      <c r="F39" s="3">
+        <v>0</v>
       </c>
       <c r="G39" s="3">
         <v>1699</v>
@@ -2150,8 +2148,8 @@
         <v>24</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>230</v>
+      <c r="F40" s="3">
+        <v>0</v>
       </c>
       <c r="G40" s="3">
         <v>1399</v>
@@ -2171,8 +2169,8 @@
         <v>17</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>230</v>
+      <c r="F41" s="3">
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>1699</v>
@@ -2192,8 +2190,8 @@
         <v>25</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>230</v>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>1699</v>
@@ -2213,8 +2211,8 @@
         <v>58</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>230</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>2999</v>
@@ -2234,8 +2232,8 @@
         <v>59</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>230</v>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>2399</v>
@@ -2255,8 +2253,8 @@
         <v>23</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>230</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>1999</v>
@@ -2276,8 +2274,8 @@
         <v>27</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>230</v>
+      <c r="F46" s="3">
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>1399</v>
@@ -2285,7 +2283,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>127</v>
@@ -2299,8 +2297,8 @@
       <c r="E47" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>230</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>899</v>
@@ -2308,7 +2306,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>128</v>
@@ -2322,8 +2320,8 @@
       <c r="E48" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>230</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>2499</v>
@@ -2331,7 +2329,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>129</v>
@@ -2345,8 +2343,8 @@
       <c r="E49" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>230</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>699</v>
@@ -2354,7 +2352,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>130</v>
@@ -2368,8 +2366,8 @@
       <c r="E50" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>230</v>
+      <c r="F50" s="3">
+        <v>0</v>
       </c>
       <c r="G50" s="3">
         <v>699</v>
@@ -2377,7 +2375,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>131</v>
@@ -2391,8 +2389,8 @@
       <c r="E51" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>230</v>
+      <c r="F51" s="3">
+        <v>0</v>
       </c>
       <c r="G51" s="3">
         <v>799</v>
@@ -2400,7 +2398,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>132</v>
@@ -2414,8 +2412,8 @@
       <c r="E52" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>230</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>459</v>
@@ -2423,7 +2421,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>140</v>
@@ -2437,8 +2435,8 @@
       <c r="E53" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>230</v>
+      <c r="F53" s="3">
+        <v>0</v>
       </c>
       <c r="G53" s="3">
         <v>659</v>
@@ -2446,7 +2444,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>134</v>
@@ -2460,8 +2458,8 @@
       <c r="E54" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>230</v>
+      <c r="F54" s="3">
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>599</v>
@@ -2469,7 +2467,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>135</v>
@@ -2483,8 +2481,8 @@
       <c r="E55" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>230</v>
+      <c r="F55" s="3">
+        <v>0</v>
       </c>
       <c r="G55" s="13">
         <v>799</v>
@@ -2492,7 +2490,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>113</v>
@@ -2506,8 +2504,8 @@
       <c r="E56" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>230</v>
+      <c r="F56" s="3">
+        <v>0</v>
       </c>
       <c r="G56" s="13">
         <v>299</v>
@@ -2515,7 +2513,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>136</v>
@@ -2529,8 +2527,8 @@
       <c r="E57" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>230</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="13">
         <v>1299</v>
@@ -2538,7 +2536,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>137</v>
@@ -2552,8 +2550,8 @@
       <c r="E58" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>230</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="13">
         <v>1299</v>
@@ -2561,7 +2559,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>138</v>
@@ -2575,8 +2573,8 @@
       <c r="E59" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>230</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="13">
         <v>2499</v>
@@ -2584,7 +2582,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>139</v>
@@ -2598,8 +2596,8 @@
       <c r="E60" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>230</v>
+      <c r="F60" s="3">
+        <v>0</v>
       </c>
       <c r="G60" s="16">
         <v>2499</v>
@@ -2607,7 +2605,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>126</v>
@@ -2621,8 +2619,8 @@
       <c r="E61" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>230</v>
+      <c r="F61" s="3">
+        <v>0</v>
       </c>
       <c r="G61" s="16">
         <v>899</v>
@@ -2630,7 +2628,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>133</v>
@@ -2644,8 +2642,8 @@
       <c r="E62" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>230</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="16">
         <v>499</v>
@@ -2653,7 +2651,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>125</v>
@@ -2667,8 +2665,8 @@
       <c r="E63" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>230</v>
+      <c r="F63" s="3">
+        <v>0</v>
       </c>
       <c r="G63" s="16">
         <v>1199</v>
@@ -2676,7 +2674,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>121</v>
@@ -2690,8 +2688,8 @@
       <c r="E64" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>230</v>
+      <c r="F64" s="3">
+        <v>0</v>
       </c>
       <c r="G64" s="16">
         <v>1199</v>
@@ -2699,7 +2697,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>123</v>
@@ -2713,8 +2711,8 @@
       <c r="E65" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>230</v>
+      <c r="F65" s="3">
+        <v>0</v>
       </c>
       <c r="G65" s="16">
         <v>1399</v>
@@ -2722,7 +2720,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>45</v>
@@ -2736,8 +2734,8 @@
       <c r="E66" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>230</v>
+      <c r="F66" s="3">
+        <v>0</v>
       </c>
       <c r="G66" s="13">
         <v>399</v>
@@ -2745,7 +2743,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>65</v>
@@ -2759,8 +2757,8 @@
       <c r="E67" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>230</v>
+      <c r="F67" s="3">
+        <v>0</v>
       </c>
       <c r="G67" s="13">
         <v>559</v>
@@ -2768,7 +2766,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>44</v>
@@ -2782,8 +2780,8 @@
       <c r="E68" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>230</v>
+      <c r="F68" s="3">
+        <v>0</v>
       </c>
       <c r="G68" s="16">
         <v>679</v>
@@ -2791,7 +2789,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>9</v>
@@ -2805,8 +2803,8 @@
       <c r="E69" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>230</v>
+      <c r="F69" s="3">
+        <v>0</v>
       </c>
       <c r="G69" s="13">
         <v>1199</v>
@@ -2814,7 +2812,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>8</v>
@@ -2828,8 +2826,8 @@
       <c r="E70" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>230</v>
+      <c r="F70" s="3">
+        <v>0</v>
       </c>
       <c r="G70" s="13">
         <v>1699</v>
@@ -2837,7 +2835,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>10</v>
@@ -2851,8 +2849,8 @@
       <c r="E71" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>230</v>
+      <c r="F71" s="3">
+        <v>0</v>
       </c>
       <c r="G71" s="13">
         <v>1399</v>
@@ -2860,7 +2858,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>66</v>
@@ -2874,8 +2872,8 @@
       <c r="E72" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>230</v>
+      <c r="F72" s="3">
+        <v>0</v>
       </c>
       <c r="G72" s="13">
         <v>1599</v>
@@ -2883,7 +2881,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>42</v>
@@ -2897,8 +2895,8 @@
       <c r="E73" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>230</v>
+      <c r="F73" s="3">
+        <v>0</v>
       </c>
       <c r="G73" s="13">
         <v>1199</v>
@@ -2906,7 +2904,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>67</v>
@@ -2920,8 +2918,8 @@
       <c r="E74" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>230</v>
+      <c r="F74" s="3">
+        <v>0</v>
       </c>
       <c r="G74" s="13">
         <v>919</v>
@@ -2929,7 +2927,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>65</v>
@@ -2943,8 +2941,8 @@
       <c r="E75" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>230</v>
+      <c r="F75" s="3">
+        <v>0</v>
       </c>
       <c r="G75" s="13">
         <v>559</v>
@@ -2952,7 +2950,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>66</v>
@@ -2966,8 +2964,8 @@
       <c r="E76" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>230</v>
+      <c r="F76" s="3">
+        <v>0</v>
       </c>
       <c r="G76" s="13">
         <v>1599</v>
@@ -2975,7 +2973,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>65</v>
@@ -2989,8 +2987,8 @@
       <c r="E77" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>230</v>
+      <c r="F77" s="3">
+        <v>0</v>
       </c>
       <c r="G77" s="16">
         <v>559</v>
@@ -2998,7 +2996,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>65</v>
@@ -3012,8 +3010,8 @@
       <c r="E78" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>230</v>
+      <c r="F78" s="3">
+        <v>0</v>
       </c>
       <c r="G78" s="16">
         <v>559</v>
@@ -3021,7 +3019,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>43</v>
@@ -3035,8 +3033,8 @@
       <c r="E79" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>230</v>
+      <c r="F79" s="3">
+        <v>0</v>
       </c>
       <c r="G79" s="16">
         <v>899</v>
@@ -3044,7 +3042,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>11</v>
@@ -3053,13 +3051,13 @@
         <v>112</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>230</v>
+        <v>247</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
       </c>
       <c r="G80" s="16">
         <v>899</v>
@@ -3067,7 +3065,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>12</v>
@@ -3076,13 +3074,13 @@
         <v>111</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>230</v>
+        <v>248</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
       </c>
       <c r="G81" s="13">
         <v>1199</v>
@@ -3090,7 +3088,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>122</v>
@@ -3104,8 +3102,8 @@
       <c r="E82" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>230</v>
+      <c r="F82" s="3">
+        <v>0</v>
       </c>
       <c r="G82" s="13">
         <v>1399</v>
@@ -3113,7 +3111,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>120</v>
@@ -3127,8 +3125,8 @@
       <c r="E83" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>230</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="13">
         <v>1199</v>
@@ -3136,7 +3134,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>119</v>
@@ -3150,8 +3148,8 @@
       <c r="E84" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>230</v>
+      <c r="F84" s="3">
+        <v>0</v>
       </c>
       <c r="G84" s="13">
         <v>499</v>
@@ -3159,7 +3157,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>118</v>
@@ -3173,8 +3171,8 @@
       <c r="E85" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>230</v>
+      <c r="F85" s="3">
+        <v>0</v>
       </c>
       <c r="G85" s="13">
         <v>899</v>
@@ -3182,7 +3180,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>117</v>
@@ -3196,8 +3194,8 @@
       <c r="E86" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>230</v>
+      <c r="F86" s="3">
+        <v>0</v>
       </c>
       <c r="G86" s="16">
         <v>999</v>
@@ -3205,7 +3203,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>116</v>
@@ -3219,8 +3217,8 @@
       <c r="E87" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>230</v>
+      <c r="F87" s="3">
+        <v>0</v>
       </c>
       <c r="G87" s="16">
         <v>839</v>
@@ -3228,7 +3226,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>124</v>
@@ -3242,8 +3240,8 @@
       <c r="E88" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>230</v>
+      <c r="F88" s="3">
+        <v>0</v>
       </c>
       <c r="G88" s="13">
         <v>1199</v>
@@ -3251,22 +3249,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>230</v>
+        <v>249</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="13">
         <v>1199</v>
@@ -3274,7 +3272,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>44</v>
@@ -3283,13 +3281,13 @@
         <v>54</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>230</v>
+        <v>250</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
       </c>
       <c r="G90" s="16">
         <v>679</v>
@@ -3297,7 +3295,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>11</v>
@@ -3306,13 +3304,13 @@
         <v>112</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>230</v>
+        <v>251</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="13">
         <v>899</v>
@@ -3320,7 +3318,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>39</v>
@@ -3329,13 +3327,13 @@
         <v>49</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>230</v>
+        <v>252</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
       </c>
       <c r="G92" s="13">
         <v>2399</v>
@@ -3343,7 +3341,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>38</v>
@@ -3352,13 +3350,13 @@
         <v>48</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
       </c>
       <c r="G93" s="13">
         <v>2999</v>
@@ -3366,7 +3364,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>8</v>
@@ -3375,13 +3373,13 @@
         <v>32</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>230</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="13">
         <v>1699</v>
@@ -3389,7 +3387,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>44</v>
@@ -3398,13 +3396,13 @@
         <v>54</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>230</v>
+        <v>254</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
       </c>
       <c r="G95" s="13">
         <v>679</v>
@@ -3412,7 +3410,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>10</v>
@@ -3421,13 +3419,13 @@
         <v>109</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>230</v>
+        <v>255</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
       </c>
       <c r="G96" s="13">
         <v>1399</v>
@@ -3435,7 +3433,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>12</v>
@@ -3444,13 +3442,13 @@
         <v>111</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>230</v>
+        <v>256</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
       </c>
       <c r="G97" s="16">
         <v>1199</v>
@@ -3458,7 +3456,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>36</v>
@@ -3467,13 +3465,13 @@
         <v>46</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>230</v>
+        <v>257</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
       </c>
       <c r="G98" s="16">
         <v>3199</v>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -812,7 +812,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
     </font>
@@ -1259,7 +1259,7 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="8">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="8">
         <v>0</v>
       </c>
@@ -1301,9 +1301,9 @@
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
         <v>1599</v>
@@ -1322,7 +1322,7 @@
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="8">
         <v>0</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="8">
         <v>0</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="8">
         <v>0</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="8">
         <v>0</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="8">
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="8">
         <v>0</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="8">
         <v>0</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="D12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="8">
         <v>0</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="D13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="8">
         <v>0</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="D14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="8">
         <v>0</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="8">
         <v>0</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="D16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="8">
         <v>0</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="8">
         <v>0</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="D18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="8">
         <v>0</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="D19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="8">
         <v>0</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="D20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="8">
         <v>0</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="D21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="8">
         <v>0</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="D22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="8">
         <v>0</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="D23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="8">
         <v>0</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="D24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="8">
         <v>0</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="D25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="8">
         <v>0</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="D26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="8">
         <v>0</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="D27" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="8">
         <v>0</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="D28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="8">
         <v>0</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="D35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="8">
         <v>0</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="D36" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="8">
         <v>0</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="D37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="8">
         <v>0</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="D38" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="8">
         <v>0</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="D39" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="8">
         <v>0</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="D40" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="8">
         <v>0</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="D41" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="8">
         <v>0</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="D42" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="8">
         <v>0</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="D43" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="8">
         <v>0</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="D44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="6"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="8">
         <v>0</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="D45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="8">
         <v>0</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="D46" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="8">
         <v>0</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>126</v>
       </c>
       <c r="F47" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="8">
         <v>899</v>
@@ -2231,7 +2231,7 @@
         <v>128</v>
       </c>
       <c r="F48" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="8">
         <v>2499</v>
@@ -2254,7 +2254,7 @@
         <v>130</v>
       </c>
       <c r="F49" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="8">
         <v>699</v>
@@ -2277,7 +2277,7 @@
         <v>132</v>
       </c>
       <c r="F50" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="8">
         <v>699</v>
@@ -2300,7 +2300,7 @@
         <v>134</v>
       </c>
       <c r="F51" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="8">
         <v>799</v>
@@ -2323,7 +2323,7 @@
         <v>138</v>
       </c>
       <c r="F52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="8">
         <v>459</v>
@@ -2346,7 +2346,7 @@
         <v>142</v>
       </c>
       <c r="F53" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="8">
         <v>659</v>
@@ -2369,7 +2369,7 @@
         <v>144</v>
       </c>
       <c r="F54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="8">
         <v>599</v>
@@ -2392,7 +2392,7 @@
         <v>146</v>
       </c>
       <c r="F55" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="8">
         <v>799</v>
@@ -2415,7 +2415,7 @@
         <v>149</v>
       </c>
       <c r="F56" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="8">
         <v>299</v>
@@ -2438,7 +2438,7 @@
         <v>151</v>
       </c>
       <c r="F57" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="8">
         <v>1299</v>
@@ -2461,7 +2461,7 @@
         <v>154</v>
       </c>
       <c r="F58" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="8">
         <v>1299</v>
@@ -2484,7 +2484,7 @@
         <v>156</v>
       </c>
       <c r="F59" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="8">
         <v>2499</v>
@@ -2507,7 +2507,7 @@
         <v>159</v>
       </c>
       <c r="F60" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="8">
         <v>2499</v>
@@ -2530,7 +2530,7 @@
         <v>161</v>
       </c>
       <c r="F61" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="8">
         <v>899</v>
@@ -2553,7 +2553,7 @@
         <v>162</v>
       </c>
       <c r="F62" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="8">
         <v>499</v>
@@ -2576,7 +2576,7 @@
         <v>166</v>
       </c>
       <c r="F63" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="8">
         <v>1199</v>
@@ -2599,7 +2599,7 @@
         <v>168</v>
       </c>
       <c r="F64" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="8">
         <v>1199</v>
@@ -2622,7 +2622,7 @@
         <v>172</v>
       </c>
       <c r="F65" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="8">
         <v>1399</v>
@@ -2645,7 +2645,7 @@
         <v>175</v>
       </c>
       <c r="F66" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="8">
         <v>399</v>
@@ -2668,7 +2668,7 @@
         <v>179</v>
       </c>
       <c r="F67" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="8">
         <v>559</v>
@@ -2691,7 +2691,7 @@
         <v>182</v>
       </c>
       <c r="F68" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="8">
         <v>679</v>
@@ -2714,7 +2714,7 @@
         <v>185</v>
       </c>
       <c r="F69" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="8">
         <v>1199</v>
@@ -2737,7 +2737,7 @@
         <v>188</v>
       </c>
       <c r="F70" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="8">
         <v>1699</v>
@@ -2760,7 +2760,7 @@
         <v>191</v>
       </c>
       <c r="F71" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="8">
         <v>1399</v>
@@ -2783,7 +2783,7 @@
         <v>194</v>
       </c>
       <c r="F72" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="8">
         <v>1599</v>
@@ -2806,7 +2806,7 @@
         <v>197</v>
       </c>
       <c r="F73" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="8">
         <v>1199</v>
@@ -2829,7 +2829,7 @@
         <v>201</v>
       </c>
       <c r="F74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="8">
         <v>919</v>
@@ -2852,7 +2852,7 @@
         <v>204</v>
       </c>
       <c r="F75" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="8">
         <v>559</v>
@@ -2875,7 +2875,7 @@
         <v>206</v>
       </c>
       <c r="F76" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="8">
         <v>1599</v>
@@ -2898,7 +2898,7 @@
         <v>209</v>
       </c>
       <c r="F77" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="8">
         <v>559</v>
@@ -2921,7 +2921,7 @@
         <v>211</v>
       </c>
       <c r="F78" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="8">
         <v>559</v>
@@ -2944,7 +2944,7 @@
         <v>214</v>
       </c>
       <c r="F79" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="8">
         <v>899</v>
@@ -2967,7 +2967,7 @@
         <v>217</v>
       </c>
       <c r="F80" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="8">
         <v>899</v>
@@ -2990,7 +2990,7 @@
         <v>220</v>
       </c>
       <c r="F81" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="8">
         <v>1199</v>
@@ -3013,7 +3013,7 @@
         <v>221</v>
       </c>
       <c r="F82" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="8">
         <v>1399</v>
@@ -3036,7 +3036,7 @@
         <v>224</v>
       </c>
       <c r="F83" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="8">
         <v>1199</v>
@@ -3059,7 +3059,7 @@
         <v>226</v>
       </c>
       <c r="F84" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="8">
         <v>499</v>
@@ -3082,7 +3082,7 @@
         <v>228</v>
       </c>
       <c r="F85" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="8">
         <v>899</v>
@@ -3105,7 +3105,7 @@
         <v>230</v>
       </c>
       <c r="F86" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="8">
         <v>999</v>
@@ -3128,7 +3128,7 @@
         <v>232</v>
       </c>
       <c r="F87" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="8">
         <v>839</v>
@@ -3151,7 +3151,7 @@
         <v>235</v>
       </c>
       <c r="F88" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="8">
         <v>1199</v>
@@ -3364,7 +3364,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="5" t="s">
         <v>236</v>
       </c>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -2208,7 +2208,7 @@
         <v>126</v>
       </c>
       <c r="F47" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="8">
         <v>899</v>
@@ -2231,7 +2231,7 @@
         <v>128</v>
       </c>
       <c r="F48" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="8">
         <v>2499</v>
@@ -2254,7 +2254,7 @@
         <v>130</v>
       </c>
       <c r="F49" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="8">
         <v>699</v>
@@ -2277,7 +2277,7 @@
         <v>132</v>
       </c>
       <c r="F50" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="8">
         <v>699</v>
@@ -2300,7 +2300,7 @@
         <v>134</v>
       </c>
       <c r="F51" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="8">
         <v>799</v>
@@ -2323,7 +2323,7 @@
         <v>138</v>
       </c>
       <c r="F52" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="8">
         <v>459</v>
@@ -2346,7 +2346,7 @@
         <v>142</v>
       </c>
       <c r="F53" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="8">
         <v>659</v>
@@ -2369,7 +2369,7 @@
         <v>144</v>
       </c>
       <c r="F54" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="8">
         <v>599</v>
@@ -2392,7 +2392,7 @@
         <v>146</v>
       </c>
       <c r="F55" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="8">
         <v>799</v>
@@ -2415,7 +2415,7 @@
         <v>149</v>
       </c>
       <c r="F56" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="8">
         <v>299</v>
@@ -2438,7 +2438,7 @@
         <v>151</v>
       </c>
       <c r="F57" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="8">
         <v>1299</v>
@@ -2461,7 +2461,7 @@
         <v>154</v>
       </c>
       <c r="F58" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="8">
         <v>1299</v>
@@ -2484,7 +2484,7 @@
         <v>156</v>
       </c>
       <c r="F59" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="8">
         <v>2499</v>
@@ -2507,7 +2507,7 @@
         <v>159</v>
       </c>
       <c r="F60" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="8">
         <v>2499</v>
@@ -2530,7 +2530,7 @@
         <v>161</v>
       </c>
       <c r="F61" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="8">
         <v>899</v>
@@ -2553,7 +2553,7 @@
         <v>162</v>
       </c>
       <c r="F62" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="8">
         <v>499</v>
@@ -2576,7 +2576,7 @@
         <v>166</v>
       </c>
       <c r="F63" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="8">
         <v>1199</v>
@@ -2599,7 +2599,7 @@
         <v>168</v>
       </c>
       <c r="F64" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="8">
         <v>1199</v>
@@ -2622,7 +2622,7 @@
         <v>172</v>
       </c>
       <c r="F65" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="8">
         <v>1399</v>
@@ -2645,7 +2645,7 @@
         <v>175</v>
       </c>
       <c r="F66" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="8">
         <v>399</v>
@@ -2668,7 +2668,7 @@
         <v>179</v>
       </c>
       <c r="F67" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="8">
         <v>559</v>
@@ -2691,7 +2691,7 @@
         <v>182</v>
       </c>
       <c r="F68" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="8">
         <v>679</v>
@@ -2714,7 +2714,7 @@
         <v>185</v>
       </c>
       <c r="F69" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="8">
         <v>1199</v>
@@ -2737,7 +2737,7 @@
         <v>188</v>
       </c>
       <c r="F70" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="8">
         <v>1699</v>
@@ -2760,7 +2760,7 @@
         <v>191</v>
       </c>
       <c r="F71" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="8">
         <v>1399</v>
@@ -2783,7 +2783,7 @@
         <v>194</v>
       </c>
       <c r="F72" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" s="8">
         <v>1599</v>
@@ -2806,7 +2806,7 @@
         <v>197</v>
       </c>
       <c r="F73" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="8">
         <v>1199</v>
@@ -2829,7 +2829,7 @@
         <v>201</v>
       </c>
       <c r="F74" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="8">
         <v>919</v>
@@ -2852,7 +2852,7 @@
         <v>204</v>
       </c>
       <c r="F75" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="8">
         <v>559</v>
@@ -2875,7 +2875,7 @@
         <v>206</v>
       </c>
       <c r="F76" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="8">
         <v>1599</v>
@@ -2898,7 +2898,7 @@
         <v>209</v>
       </c>
       <c r="F77" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="8">
         <v>559</v>
@@ -2921,7 +2921,7 @@
         <v>211</v>
       </c>
       <c r="F78" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="8">
         <v>559</v>
@@ -2944,7 +2944,7 @@
         <v>214</v>
       </c>
       <c r="F79" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="8">
         <v>899</v>
@@ -2967,7 +2967,7 @@
         <v>217</v>
       </c>
       <c r="F80" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="8">
         <v>899</v>
@@ -2990,7 +2990,7 @@
         <v>220</v>
       </c>
       <c r="F81" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" s="8">
         <v>1199</v>
@@ -3013,7 +3013,7 @@
         <v>221</v>
       </c>
       <c r="F82" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="8">
         <v>1399</v>
@@ -3036,7 +3036,7 @@
         <v>224</v>
       </c>
       <c r="F83" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="8">
         <v>1199</v>
@@ -3059,7 +3059,7 @@
         <v>226</v>
       </c>
       <c r="F84" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="8">
         <v>499</v>
@@ -3082,7 +3082,7 @@
         <v>228</v>
       </c>
       <c r="F85" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="8">
         <v>899</v>
@@ -3105,7 +3105,7 @@
         <v>230</v>
       </c>
       <c r="F86" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="8">
         <v>999</v>
@@ -3128,7 +3128,7 @@
         <v>232</v>
       </c>
       <c r="F87" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="8">
         <v>839</v>
@@ -3151,7 +3151,7 @@
         <v>235</v>
       </c>
       <c r="F88" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="8">
         <v>1199</v>
@@ -3381,7 +3381,7 @@
         <v>258</v>
       </c>
       <c r="F98" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="8">
         <v>3199</v>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\price_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC054C4-6F6D-47DC-97CE-FC223F594E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40C796-5C05-42C7-AE61-1BEDC00DD85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$101</definedName>
     <definedName name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="264">
   <si>
     <t>Platform</t>
   </si>
@@ -801,6 +801,26 @@
   </si>
   <si>
     <t>6004590737390</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100270650122.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?&amp;id=980169298266&amp;skuId=6103649806591</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6103649806591</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6923185655688</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100167111601.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1221,16 +1241,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F47" sqref="F47:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="2" bestFit="1" customWidth="1"/>
@@ -1241,7 +1261,7 @@
     <col min="7" max="7" width="14" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1264,849 +1284,851 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="12"/>
+        <v>174</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="F2" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="12">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="12">
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="12"/>
+        <v>178</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="12">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F5" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="12">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="12"/>
+        <v>208</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="F6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <v>559</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="F10" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
         <v>749</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="12">
         <v>749</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="12"/>
+        <v>181</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="F12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>242</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="F14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="12">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="F15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="12">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>254</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E16" s="12"/>
       <c r="F16" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="12">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="12">
         <v>859</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F18" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="12">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="F19" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="12">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>179</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="12">
         <v>899</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>209</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="12">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="F23" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="12">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="12"/>
+        <v>238</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="F24" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="12">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F25" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="12">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F26" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="12">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>201</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E27" s="12"/>
       <c r="F27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="12">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="12">
         <v>1099</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>245</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="12">
         <v>1099</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="12"/>
+        <v>253</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>254</v>
+      </c>
       <c r="F30" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="12">
         <v>1199</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F31" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="12">
         <v>1199</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="12">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>182</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E33" s="12"/>
       <c r="F33" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="12">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>241</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E34" s="12"/>
       <c r="F34" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="12">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>236</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="12">
         <v>1599</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="12"/>
+        <v>193</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="F36" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="12">
         <v>1599</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="12"/>
+        <v>205</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="F37" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="12">
         <v>1599</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F38" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="12">
         <v>1599</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>239</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E39" s="12"/>
       <c r="F39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="12">
         <v>1599</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>7</v>
       </c>
@@ -2121,13 +2143,13 @@
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="12">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>7</v>
       </c>
@@ -2142,13 +2164,13 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="12">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>7</v>
       </c>
@@ -2163,206 +2185,206 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="12">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>188</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="12">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>249</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E44" s="12"/>
       <c r="F44" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="12">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="12">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="12">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12">
         <v>1</v>
       </c>
       <c r="G47" s="12">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="12"/>
+        <v>244</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="F48" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="12">
         <v>2399</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="12">
         <v>2399</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="12"/>
+        <v>246</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>247</v>
+      </c>
       <c r="F50" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="12">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="12">
-        <v>4999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>236</v>
       </c>
@@ -2379,82 +2401,80 @@
         <v>258</v>
       </c>
       <c r="F52" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="12">
-        <v>4999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>138</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E53" s="12"/>
       <c r="F53" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="12">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="12">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="F55" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="12">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>50</v>
@@ -2462,953 +2482,1029 @@
       <c r="C56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="12"/>
+      <c r="D56" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="F56" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="12">
         <v>699</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>129</v>
+        <v>140</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F57" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="12">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F58" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="12">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>150</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F59" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="12">
         <v>1299</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="F60" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="12">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F61" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="12">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="F62" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="12">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0</v>
+      </c>
+      <c r="G65" s="12">
         <v>2499</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12">
-        <v>1</v>
-      </c>
-      <c r="G63" s="12">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F64" s="12">
-        <v>1</v>
-      </c>
-      <c r="G64" s="12">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12">
-        <v>1</v>
-      </c>
-      <c r="G65" s="12">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>231</v>
+        <v>63</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="F66" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="12">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="12"/>
+        <v>143</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="F67" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="12">
         <v>499</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F68" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="12">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="F69" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="12">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F70" s="12">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
+      <c r="G71" s="12">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="12">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12">
         <v>899</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F70" s="12">
-        <v>1</v>
-      </c>
-      <c r="G70" s="12">
+    <row r="73" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="12">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12">
         <v>899</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12">
-        <v>1</v>
-      </c>
-      <c r="G71" s="12">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F72" s="12">
-        <v>1</v>
-      </c>
-      <c r="G72" s="12">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12">
-        <v>1</v>
-      </c>
-      <c r="G73" s="12">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>143</v>
+        <v>54</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F74" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="12">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E75" s="12"/>
+        <v>165</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="F75" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="12">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F76" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="12">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" s="12"/>
+        <v>171</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="F77" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="12">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F78" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="12">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>224</v>
+      </c>
       <c r="F79" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="12">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>145</v>
+        <v>234</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="F80" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="12">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" s="12">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>149</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E82" s="12"/>
       <c r="F82" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="12">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="12">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>134</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E84" s="12"/>
       <c r="F84" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="12">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="12">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>161</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E86" s="12"/>
       <c r="F86" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="12">
         <v>899</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="12">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>126</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="12"/>
       <c r="F88" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="12">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="12">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>132</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E90" s="12"/>
       <c r="F90" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="12">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>166</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E91" s="12"/>
       <c r="F91" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="12">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="12">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>168</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E93" s="12"/>
       <c r="F93" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="12">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>172</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E94" s="12"/>
       <c r="F94" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="12">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="12">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>221</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" s="12"/>
       <c r="F96" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" s="12">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>224</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="12"/>
       <c r="F97" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="12">
         <v>1199</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>235</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" s="12"/>
       <c r="F98" s="12">
+        <v>0</v>
+      </c>
+      <c r="G98" s="12">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12">
         <v>1</v>
       </c>
-      <c r="G98" s="12">
-        <v>1199</v>
+      <c r="G99" s="12">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F100" s="12">
+        <v>1</v>
+      </c>
+      <c r="G100" s="12">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12">
+        <v>0</v>
+      </c>
+      <c r="G101" s="12">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G101" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="6923185656593"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D99" r:id="rId1" xr:uid="{6C9C2581-8594-40F9-89A4-15BE90B635F2}"/>
+    <hyperlink ref="D100" r:id="rId2" xr:uid="{DE7D00E3-5866-49C2-9EA4-519C741B378B}"/>
+    <hyperlink ref="D101" r:id="rId3" xr:uid="{7AC89F84-ADF2-4FAE-A884-193C8989A464}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1233,7 +1233,7 @@
     <col min="7" max="7" style="13" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1273,13 +1273,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <v>399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1294,13 +1294,13 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8">
         <v>399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1317,13 +1317,13 @@
         <v>18</v>
       </c>
       <c r="F4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
         <v>559</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1340,13 +1340,13 @@
         <v>21</v>
       </c>
       <c r="F5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
         <v>559</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1363,13 +1363,13 @@
         <v>24</v>
       </c>
       <c r="F6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
         <v>559</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1386,13 +1386,13 @@
         <v>26</v>
       </c>
       <c r="F7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
         <v>559</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1407,13 +1407,13 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <v>599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1428,13 +1428,13 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1451,13 +1451,13 @@
         <v>35</v>
       </c>
       <c r="F10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <v>749</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1474,13 +1474,13 @@
         <v>37</v>
       </c>
       <c r="F11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
         <v>749</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1497,13 +1497,13 @@
         <v>40</v>
       </c>
       <c r="F12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <v>749</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1518,13 +1518,13 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
         <v>749</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1541,13 +1541,13 @@
         <v>45</v>
       </c>
       <c r="F14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <v>859</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1564,13 +1564,13 @@
         <v>47</v>
       </c>
       <c r="F15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
         <v>859</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -1585,13 +1585,13 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>859</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -1606,13 +1606,13 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
         <v>859</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -1629,13 +1629,13 @@
         <v>54</v>
       </c>
       <c r="F18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8">
         <v>899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
@@ -1652,13 +1652,13 @@
         <v>58</v>
       </c>
       <c r="F19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
         <v>899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1673,13 +1673,13 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
         <v>899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -1696,13 +1696,13 @@
         <v>64</v>
       </c>
       <c r="F21" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
         <v>999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1717,13 +1717,13 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="8">
         <v>999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1740,13 +1740,13 @@
         <v>70</v>
       </c>
       <c r="F23" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="8">
         <v>1099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1763,13 +1763,13 @@
         <v>74</v>
       </c>
       <c r="F24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8">
         <v>1099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
       <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
@@ -1786,13 +1786,13 @@
         <v>76</v>
       </c>
       <c r="F25" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
         <v>1099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
       <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
@@ -1809,13 +1809,13 @@
         <v>79</v>
       </c>
       <c r="F26" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="8">
         <v>1099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1830,13 +1830,13 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="8">
         <v>1099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
       <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1851,13 +1851,13 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="8">
         <v>1099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
@@ -1872,13 +1872,13 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="8">
         <v>1099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -1895,13 +1895,13 @@
         <v>88</v>
       </c>
       <c r="F30" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="8">
         <v>1199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -1918,13 +1918,13 @@
         <v>91</v>
       </c>
       <c r="F31" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="8">
         <v>1199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
       <c r="A32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1939,13 +1939,13 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="8">
         <v>1199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
       <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
@@ -1960,13 +1960,13 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="8">
         <v>1199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
       <c r="A34" s="5" t="s">
         <v>12</v>
       </c>
@@ -1981,13 +1981,13 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="8">
         <v>1199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
@@ -2004,13 +2004,13 @@
         <v>99</v>
       </c>
       <c r="F35" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="8">
         <v>1599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
@@ -2027,13 +2027,13 @@
         <v>103</v>
       </c>
       <c r="F36" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="8">
         <v>1599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -2050,13 +2050,13 @@
         <v>106</v>
       </c>
       <c r="F37" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="8">
         <v>1599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
@@ -2073,13 +2073,13 @@
         <v>109</v>
       </c>
       <c r="F38" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="8">
         <v>1599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
       <c r="A39" s="5" t="s">
         <v>12</v>
       </c>
@@ -2094,13 +2094,13 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="8">
         <v>1599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -2115,13 +2115,13 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="8">
         <v>1599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
       <c r="A41" s="5" t="s">
         <v>12</v>
       </c>
@@ -2136,13 +2136,13 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="8">
         <v>1599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
       <c r="A42" s="5" t="s">
         <v>12</v>
       </c>
@@ -2157,13 +2157,13 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="8">
         <v>1599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
       <c r="A43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2178,13 +2178,13 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="8">
         <v>1599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
       <c r="A44" s="5" t="s">
         <v>12</v>
       </c>
@@ -2199,13 +2199,13 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="8">
         <v>1599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
       <c r="A45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2220,13 +2220,13 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="8">
         <v>1599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2241,13 +2241,13 @@
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="8">
         <v>1799</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2262,13 +2262,13 @@
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="8">
         <v>1999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
       <c r="A48" s="5" t="s">
         <v>31</v>
       </c>
@@ -2285,13 +2285,13 @@
         <v>127</v>
       </c>
       <c r="F48" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="8">
         <v>2399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
       <c r="A49" s="5" t="s">
         <v>12</v>
       </c>
@@ -2306,13 +2306,13 @@
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="8">
         <v>2399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
       <c r="A50" s="5" t="s">
         <v>31</v>
       </c>
@@ -2329,13 +2329,13 @@
         <v>132</v>
       </c>
       <c r="F50" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="8">
         <v>2699</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
       <c r="A51" s="5" t="s">
         <v>12</v>
       </c>
@@ -2350,13 +2350,13 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="8">
         <v>2699</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
       <c r="A52" s="5" t="s">
         <v>31</v>
       </c>
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="F52" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="8">
         <v>2999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
       <c r="A53" s="5" t="s">
         <v>12</v>
       </c>
@@ -2394,13 +2394,13 @@
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="8">
         <v>2999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2415,13 +2415,13 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="8">
         <v>3199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
       <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
@@ -2438,13 +2438,13 @@
         <v>145</v>
       </c>
       <c r="F55" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="8">
         <v>459</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="5" t="s">
         <v>7</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>699</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
       <c r="A57" s="5" t="s">
         <v>7</v>
       </c>
@@ -2484,13 +2484,13 @@
         <v>153</v>
       </c>
       <c r="F57" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="8">
         <v>659</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
@@ -2507,13 +2507,13 @@
         <v>157</v>
       </c>
       <c r="F58" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="8">
         <v>1299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
       <c r="A59" s="5" t="s">
         <v>7</v>
       </c>
@@ -2530,13 +2530,13 @@
         <v>160</v>
       </c>
       <c r="F59" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="8">
         <v>1299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
       <c r="A60" s="5" t="s">
         <v>7</v>
       </c>
@@ -2553,13 +2553,13 @@
         <v>164</v>
       </c>
       <c r="F60" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="8">
         <v>2499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
       <c r="A61" s="5" t="s">
         <v>7</v>
       </c>
@@ -2576,13 +2576,13 @@
         <v>167</v>
       </c>
       <c r="F61" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="8">
         <v>2499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
       <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
@@ -2599,13 +2599,13 @@
         <v>171</v>
       </c>
       <c r="F62" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="8">
         <v>839</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
       <c r="A63" s="5" t="s">
         <v>7</v>
       </c>
@@ -2622,13 +2622,13 @@
         <v>175</v>
       </c>
       <c r="F63" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="8">
         <v>499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
       <c r="A64" s="5" t="s">
         <v>7</v>
       </c>
@@ -2645,13 +2645,13 @@
         <v>179</v>
       </c>
       <c r="F64" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="8">
         <v>899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
       <c r="A65" s="5" t="s">
         <v>7</v>
       </c>
@@ -2668,13 +2668,13 @@
         <v>183</v>
       </c>
       <c r="F65" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="8">
         <v>2499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
       <c r="A66" s="5" t="s">
         <v>7</v>
       </c>
@@ -2691,13 +2691,13 @@
         <v>187</v>
       </c>
       <c r="F66" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="8">
         <v>599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
       <c r="A67" s="5" t="s">
         <v>7</v>
       </c>
@@ -2714,13 +2714,13 @@
         <v>190</v>
       </c>
       <c r="F67" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="8">
         <v>499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
       <c r="A68" s="5" t="s">
         <v>7</v>
       </c>
@@ -2737,13 +2737,13 @@
         <v>194</v>
       </c>
       <c r="F68" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="8">
         <v>999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
       <c r="A69" s="5" t="s">
         <v>7</v>
       </c>
@@ -2760,13 +2760,13 @@
         <v>198</v>
       </c>
       <c r="F69" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="8">
         <v>799</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
@@ -2783,13 +2783,13 @@
         <v>202</v>
       </c>
       <c r="F70" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="8">
         <v>230</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
       <c r="A71" s="5" t="s">
         <v>7</v>
       </c>
@@ -2806,13 +2806,13 @@
         <v>206</v>
       </c>
       <c r="F71" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="8">
         <v>799</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
       <c r="A72" s="5" t="s">
         <v>7</v>
       </c>
@@ -2829,13 +2829,13 @@
         <v>210</v>
       </c>
       <c r="F72" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" s="8">
         <v>899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
       <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
@@ -2852,13 +2852,13 @@
         <v>214</v>
       </c>
       <c r="F73" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="8">
         <v>899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
       <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
@@ -2875,13 +2875,13 @@
         <v>218</v>
       </c>
       <c r="F74" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="8">
         <v>699</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
       <c r="A75" s="5" t="s">
         <v>7</v>
       </c>
@@ -2898,13 +2898,13 @@
         <v>222</v>
       </c>
       <c r="F75" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="8">
         <v>1199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
       <c r="A76" s="5" t="s">
         <v>7</v>
       </c>
@@ -2921,13 +2921,13 @@
         <v>226</v>
       </c>
       <c r="F76" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="8">
         <v>1199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
       <c r="A77" s="5" t="s">
         <v>7</v>
       </c>
@@ -2944,13 +2944,13 @@
         <v>230</v>
       </c>
       <c r="F77" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="8">
         <v>1399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
       <c r="A78" s="5" t="s">
         <v>7</v>
       </c>
@@ -2967,13 +2967,13 @@
         <v>233</v>
       </c>
       <c r="F78" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="8">
         <v>1399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
       <c r="A79" s="5" t="s">
         <v>7</v>
       </c>
@@ -2990,13 +2990,13 @@
         <v>236</v>
       </c>
       <c r="F79" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="8">
         <v>1199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
       <c r="A80" s="5" t="s">
         <v>7</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>239</v>
       </c>
       <c r="F80" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="8">
         <v>1199</v>
@@ -3040,7 +3040,7 @@
         <v>699</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
       <c r="A82" s="5" t="s">
         <v>12</v>
       </c>
@@ -3055,13 +3055,13 @@
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="8">
         <v>1299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
       <c r="A83" s="5" t="s">
         <v>12</v>
       </c>
@@ -3076,13 +3076,13 @@
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="8">
         <v>2499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
       <c r="A84" s="5" t="s">
         <v>12</v>
       </c>
@@ -3097,13 +3097,13 @@
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="8">
         <v>839</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
       <c r="A85" s="5" t="s">
         <v>12</v>
       </c>
@@ -3118,13 +3118,13 @@
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="8">
         <v>499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3139,13 +3139,13 @@
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="8">
         <v>899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
       <c r="A87" s="5" t="s">
         <v>12</v>
       </c>
@@ -3160,13 +3160,13 @@
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="8">
         <v>2499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
       <c r="A88" s="5" t="s">
         <v>12</v>
       </c>
@@ -3181,13 +3181,13 @@
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="8">
         <v>599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
       <c r="A89" s="5" t="s">
         <v>12</v>
       </c>
@@ -3202,13 +3202,13 @@
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="8">
         <v>499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
       <c r="A90" s="5" t="s">
         <v>12</v>
       </c>
@@ -3223,13 +3223,13 @@
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="8">
         <v>999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
       <c r="A91" s="5" t="s">
         <v>12</v>
       </c>
@@ -3244,13 +3244,13 @@
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="8">
         <v>799</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
       <c r="A92" s="5" t="s">
         <v>12</v>
       </c>
@@ -3265,13 +3265,13 @@
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="8">
         <v>299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" hidden="1">
       <c r="A93" s="5" t="s">
         <v>12</v>
       </c>
@@ -3286,13 +3286,13 @@
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="8">
         <v>799</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" hidden="1">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3307,13 +3307,13 @@
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="8">
         <v>899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" hidden="1">
       <c r="A95" s="5" t="s">
         <v>12</v>
       </c>
@@ -3328,13 +3328,13 @@
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="8">
         <v>899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
       <c r="A96" s="5" t="s">
         <v>12</v>
       </c>
@@ -3349,13 +3349,13 @@
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" s="8">
         <v>699</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
       <c r="A97" s="5" t="s">
         <v>12</v>
       </c>
@@ -3370,13 +3370,13 @@
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="8">
         <v>1199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
       <c r="A98" s="5" t="s">
         <v>12</v>
       </c>
@@ -3391,13 +3391,13 @@
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" s="8">
         <v>1399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
       <c r="A99" s="5" t="s">
         <v>12</v>
       </c>
@@ -3412,13 +3412,13 @@
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="8">
         <v>1999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
       <c r="A100" s="5" t="s">
         <v>31</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>6103649806591</v>
       </c>
       <c r="F100" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="8">
         <v>1999</v>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -10,7 +10,7 @@
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$G$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">=Sheet1!$A$1:$G$97</definedName>
     <definedName name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="253">
   <si>
     <t>Platform</t>
   </si>
@@ -128,7 +128,7 @@
     <t>6127230887124</t>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?&amp;id=625597690034&amp;skuId=5626578542751</t>
+    <t>https://detail.tmall.com/item.htm?&amp;id=625597690034&amp;skuId=5906318729498</t>
   </si>
   <si>
     <t>5626578542751</t>
@@ -584,15 +584,6 @@
     <t>1756921788833</t>
   </si>
   <si>
-    <t>6923185614920</t>
-  </si>
-  <si>
-    <t>X1-50L-2000w热水器</t>
-  </si>
-  <si>
-    <t>1756921788832</t>
-  </si>
-  <si>
     <t>6923185613664</t>
   </si>
   <si>
@@ -629,18 +620,6 @@
     <t>1801828025682</t>
   </si>
   <si>
-    <t>6923185610410</t>
-  </si>
-  <si>
-    <t>Air扁筒电热水器</t>
-  </si>
-  <si>
-    <t>290130975552</t>
-  </si>
-  <si>
-    <t>1756848157332</t>
-  </si>
-  <si>
     <t>6923185610250</t>
   </si>
   <si>
@@ -764,9 +743,6 @@
     <t>https://item.jd.com/10097111681728.html</t>
   </si>
   <si>
-    <t>https://item.jd.com/10097111681727.html</t>
-  </si>
-  <si>
     <t>https://item.jd.com/10089284956258.html</t>
   </si>
   <si>
@@ -777,9 +753,6 @@
   </si>
   <si>
     <t>https://item.jd.com/100124625239.html</t>
-  </si>
-  <si>
-    <t>https://item.jd.com/10091792539820.html</t>
   </si>
   <si>
     <t>https://item.jd.com/10093429580106.html</t>
@@ -1218,7 +1191,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1227,7 +1200,7 @@
     <col min="1" max="1" style="10" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="11" width="23.862142857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="10" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="41.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="110.57642857142856" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="13" width="17.719285714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="13" width="14.005" customWidth="1" bestFit="1"/>
@@ -1273,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="8">
         <v>399</v>
@@ -1294,7 +1267,7 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="8">
         <v>399</v>
@@ -1317,7 +1290,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="8">
         <v>559</v>
@@ -1340,7 +1313,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="8">
         <v>559</v>
@@ -1363,7 +1336,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
         <v>559</v>
@@ -1386,7 +1359,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
         <v>559</v>
@@ -1407,7 +1380,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
         <v>599</v>
@@ -1428,13 +1401,13 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
         <v>599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1451,13 +1424,13 @@
         <v>35</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="8">
         <v>749</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1474,13 +1447,13 @@
         <v>37</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
         <v>749</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1497,13 +1470,13 @@
         <v>40</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8">
         <v>749</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1518,7 +1491,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="8">
         <v>749</v>
@@ -1541,7 +1514,7 @@
         <v>45</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="8">
         <v>859</v>
@@ -1564,7 +1537,7 @@
         <v>47</v>
       </c>
       <c r="F15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="8">
         <v>859</v>
@@ -1585,7 +1558,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="8">
         <v>859</v>
@@ -1606,7 +1579,7 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="8">
         <v>859</v>
@@ -1629,7 +1602,7 @@
         <v>54</v>
       </c>
       <c r="F18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="8">
         <v>899</v>
@@ -1652,7 +1625,7 @@
         <v>58</v>
       </c>
       <c r="F19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="8">
         <v>899</v>
@@ -1673,7 +1646,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="8">
         <v>899</v>
@@ -1696,7 +1669,7 @@
         <v>64</v>
       </c>
       <c r="F21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="8">
         <v>999</v>
@@ -1717,7 +1690,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="8">
         <v>999</v>
@@ -1740,7 +1713,7 @@
         <v>70</v>
       </c>
       <c r="F23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="8">
         <v>1099</v>
@@ -1763,7 +1736,7 @@
         <v>74</v>
       </c>
       <c r="F24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="8">
         <v>1099</v>
@@ -1786,7 +1759,7 @@
         <v>76</v>
       </c>
       <c r="F25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="8">
         <v>1099</v>
@@ -1809,7 +1782,7 @@
         <v>79</v>
       </c>
       <c r="F26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="8">
         <v>1099</v>
@@ -1830,7 +1803,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="8">
         <v>1099</v>
@@ -1851,7 +1824,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="8">
         <v>1099</v>
@@ -1872,7 +1845,7 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="8">
         <v>1099</v>
@@ -1895,7 +1868,7 @@
         <v>88</v>
       </c>
       <c r="F30" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="8">
         <v>1199</v>
@@ -1918,7 +1891,7 @@
         <v>91</v>
       </c>
       <c r="F31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="8">
         <v>1199</v>
@@ -1939,7 +1912,7 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="8">
         <v>1199</v>
@@ -1960,7 +1933,7 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="8">
         <v>1199</v>
@@ -1981,7 +1954,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="8">
         <v>1199</v>
@@ -2004,7 +1977,7 @@
         <v>99</v>
       </c>
       <c r="F35" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="8">
         <v>1599</v>
@@ -2027,7 +2000,7 @@
         <v>103</v>
       </c>
       <c r="F36" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="8">
         <v>1599</v>
@@ -2050,7 +2023,7 @@
         <v>106</v>
       </c>
       <c r="F37" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="8">
         <v>1599</v>
@@ -2073,7 +2046,7 @@
         <v>109</v>
       </c>
       <c r="F38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="8">
         <v>1599</v>
@@ -2094,7 +2067,7 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="8">
         <v>1599</v>
@@ -2115,7 +2088,7 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="8">
         <v>1599</v>
@@ -2136,7 +2109,7 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="8">
         <v>1599</v>
@@ -2157,7 +2130,7 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="8">
         <v>1599</v>
@@ -2178,7 +2151,7 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="8">
         <v>1599</v>
@@ -2199,7 +2172,7 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="8">
         <v>1599</v>
@@ -2220,7 +2193,7 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="8">
         <v>1599</v>
@@ -2241,7 +2214,7 @@
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="8">
         <v>1799</v>
@@ -2262,7 +2235,7 @@
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="8">
         <v>1999</v>
@@ -2285,7 +2258,7 @@
         <v>127</v>
       </c>
       <c r="F48" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="8">
         <v>2399</v>
@@ -2306,7 +2279,7 @@
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="8">
         <v>2399</v>
@@ -2329,7 +2302,7 @@
         <v>132</v>
       </c>
       <c r="F50" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="8">
         <v>2699</v>
@@ -2350,7 +2323,7 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="8">
         <v>2699</v>
@@ -2373,7 +2346,7 @@
         <v>137</v>
       </c>
       <c r="F52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="8">
         <v>2999</v>
@@ -2394,7 +2367,7 @@
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="8">
         <v>2999</v>
@@ -2415,7 +2388,7 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="8">
         <v>3199</v>
@@ -2438,7 +2411,7 @@
         <v>145</v>
       </c>
       <c r="F55" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="8">
         <v>459</v>
@@ -2467,7 +2440,7 @@
         <v>699</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="5" t="s">
         <v>7</v>
       </c>
@@ -2484,7 +2457,7 @@
         <v>153</v>
       </c>
       <c r="F57" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="8">
         <v>659</v>
@@ -2507,7 +2480,7 @@
         <v>157</v>
       </c>
       <c r="F58" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="8">
         <v>1299</v>
@@ -2530,7 +2503,7 @@
         <v>160</v>
       </c>
       <c r="F59" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="8">
         <v>1299</v>
@@ -2553,7 +2526,7 @@
         <v>164</v>
       </c>
       <c r="F60" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="8">
         <v>2499</v>
@@ -2576,13 +2549,13 @@
         <v>167</v>
       </c>
       <c r="F61" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="8">
         <v>2499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
@@ -2599,7 +2572,7 @@
         <v>171</v>
       </c>
       <c r="F62" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="8">
         <v>839</v>
@@ -2622,7 +2595,7 @@
         <v>175</v>
       </c>
       <c r="F63" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="8">
         <v>499</v>
@@ -2645,7 +2618,7 @@
         <v>179</v>
       </c>
       <c r="F64" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="8">
         <v>899</v>
@@ -2668,7 +2641,7 @@
         <v>183</v>
       </c>
       <c r="F65" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="8">
         <v>2499</v>
@@ -2691,7 +2664,7 @@
         <v>187</v>
       </c>
       <c r="F66" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="8">
         <v>599</v>
@@ -2708,16 +2681,16 @@
         <v>189</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F67" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="8">
-        <v>499</v>
+        <v>999</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
@@ -2725,22 +2698,22 @@
         <v>7</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" s="7" t="s">
         <v>193</v>
       </c>
+      <c r="D68" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="E68" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F68" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="8">
-        <v>999</v>
+        <v>799</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
@@ -2748,22 +2721,22 @@
         <v>7</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="D69" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="E69" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F69" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="8">
-        <v>799</v>
+        <v>230</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
@@ -2771,22 +2744,22 @@
         <v>7</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F70" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="8">
-        <v>230</v>
+        <v>899</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
@@ -2794,22 +2767,22 @@
         <v>7</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D71" s="7" t="s">
         <v>205</v>
       </c>
+      <c r="D71" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="E71" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F71" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="8">
-        <v>799</v>
+        <v>899</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
@@ -2817,22 +2790,22 @@
         <v>7</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F72" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="8">
-        <v>899</v>
+        <v>699</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
@@ -2840,45 +2813,45 @@
         <v>7</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" s="9" t="s">
         <v>213</v>
       </c>
+      <c r="D73" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="E73" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F73" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="8">
-        <v>899</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
+        <v>1199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="8">
-        <v>699</v>
+        <v>1199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
@@ -2886,22 +2859,22 @@
         <v>7</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F75" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="8">
-        <v>1199</v>
+        <v>1399</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
@@ -2909,25 +2882,25 @@
         <v>7</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>226</v>
       </c>
       <c r="F76" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="8">
-        <v>1199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
+        <v>1399</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="5" t="s">
         <v>7</v>
       </c>
@@ -2938,16 +2911,16 @@
         <v>228</v>
       </c>
       <c r="D77" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="F77" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="8">
-        <v>1399</v>
+        <v>1199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
@@ -2955,110 +2928,106 @@
         <v>7</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E78" s="6" t="s">
+      <c r="F78" s="8">
+        <v>1</v>
+      </c>
+      <c r="G78" s="8">
+        <v>1199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="8">
-        <v>0</v>
-      </c>
-      <c r="G78" s="8">
-        <v>1399</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
-      <c r="A79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="E79" s="8"/>
       <c r="F79" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="8">
-        <v>1199</v>
+        <v>699</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
       <c r="A80" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>239</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="E80" s="8"/>
       <c r="F80" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="8">
-        <v>1199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="14.25">
+        <v>1299</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
       <c r="A81" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8">
         <v>1</v>
       </c>
       <c r="G81" s="8">
-        <v>699</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
+        <v>2499</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="8">
-        <v>1299</v>
+        <v>839</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
@@ -3066,20 +3035,20 @@
         <v>12</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="8">
-        <v>2499</v>
+        <v>499</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
@@ -3087,20 +3056,20 @@
         <v>12</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="8">
-        <v>839</v>
+        <v>899</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
@@ -3108,20 +3077,20 @@
         <v>12</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="8">
-        <v>499</v>
+        <v>2499</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
@@ -3129,20 +3098,20 @@
         <v>12</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="8">
-        <v>899</v>
+        <v>599</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
@@ -3150,20 +3119,20 @@
         <v>12</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="8">
-        <v>2499</v>
+        <v>999</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
@@ -3171,20 +3140,20 @@
         <v>12</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="8">
-        <v>599</v>
+        <v>799</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
@@ -3192,20 +3161,20 @@
         <v>12</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="8">
-        <v>499</v>
+        <v>299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
@@ -3213,20 +3182,20 @@
         <v>12</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="8">
-        <v>999</v>
+        <v>899</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
@@ -3234,20 +3203,20 @@
         <v>12</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="8">
-        <v>799</v>
+        <v>899</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
@@ -3255,41 +3224,41 @@
         <v>12</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>252</v>
+        <v>209</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="8">
-        <v>299</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" hidden="1">
+        <v>699</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="8">
-        <v>799</v>
+        <v>1199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" hidden="1">
@@ -3297,20 +3266,20 @@
         <v>12</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="8">
-        <v>899</v>
+        <v>1399</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" hidden="1">
@@ -3318,147 +3287,63 @@
         <v>12</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>255</v>
+        <v>123</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="8">
-        <v>899</v>
+        <v>1999</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
       <c r="A96" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E96" s="8"/>
+        <v>251</v>
+      </c>
+      <c r="E96" s="8">
+        <v>6103649806591</v>
+      </c>
       <c r="F96" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="8">
-        <v>699</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
       <c r="A97" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="8">
-        <v>1199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
-      <c r="A98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8">
-        <v>0</v>
-      </c>
-      <c r="G98" s="8">
-        <v>1399</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
-      <c r="A99" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8">
-        <v>0</v>
-      </c>
-      <c r="G99" s="8">
-        <v>1999</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
-      <c r="A100" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E100" s="8">
-        <v>6103649806591</v>
-      </c>
-      <c r="F100" s="8">
-        <v>0</v>
-      </c>
-      <c r="G100" s="8">
-        <v>1999</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="14.25">
-      <c r="A101" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8">
-        <v>1</v>
-      </c>
-      <c r="G101" s="8">
         <v>699</v>
       </c>
     </row>
